--- a/data/long_dif/P27_N-Estudios-long_dif.xlsx
+++ b/data/long_dif/P27_N-Estudios-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -770,7 +770,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -884,7 +884,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1116,7 +1116,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1230,7 +1230,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1462,7 +1462,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1576,7 +1576,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1808,7 +1808,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1922,7 +1922,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
